--- a/dojinyou/code_3week/CheckListForm_3week.xlsx
+++ b/dojinyou/code_3week/CheckListForm_3week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOJINYOU\Dropbox\MJU\Coin\2.study\21_1\Study-21-1-codingTest\dojinyou\code_3week\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B177D4-5896-4639-9197-8D05A83F53B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01C2821-7C58-43A3-914D-15C9124AB6CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2683A084-5E1C-45DB-8DAE-141C5F5642CD}"/>
+    <workbookView xWindow="3588" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{2683A084-5E1C-45DB-8DAE-141C5F5642CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="51">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,14 +234,6 @@
   </si>
   <si>
     <t>https://www.acmicpc.net/problem/7490</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중량제한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/1939</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -788,14 +780,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1112,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA290B9-D938-4FB9-A2F0-C9496544FB19}">
-  <dimension ref="B1:V194"/>
+  <dimension ref="B1:V182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85:F85"/>
+    <sheetView tabSelected="1" topLeftCell="B155" workbookViewId="0">
+      <selection activeCell="D155" sqref="D155:F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1134,7 +1126,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="32"/>
-      <c r="D2" s="35"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1152,9 @@
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="14">
+        <v>44275</v>
+      </c>
     </row>
     <row r="5" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="29" t="s">
@@ -1280,7 +1274,9 @@
       <c r="E16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="14">
+        <v>44275</v>
+      </c>
     </row>
     <row r="17" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="29" t="s">
@@ -1400,7 +1396,9 @@
       <c r="E28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="14"/>
+      <c r="F28" s="14">
+        <v>44275</v>
+      </c>
     </row>
     <row r="29" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="29" t="s">
@@ -1517,7 +1515,9 @@
       <c r="E40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="14"/>
+      <c r="F40" s="14">
+        <v>44275</v>
+      </c>
     </row>
     <row r="41" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B41" s="29" t="s">
@@ -1631,7 +1631,9 @@
       <c r="E52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F52" s="14"/>
+      <c r="F52" s="14">
+        <v>44275</v>
+      </c>
     </row>
     <row r="53" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B53" s="29" t="s">
@@ -1740,12 +1742,14 @@
       </c>
       <c r="C64" s="28"/>
       <c r="D64" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F64" s="14"/>
+      <c r="F64" s="14">
+        <v>44275</v>
+      </c>
     </row>
     <row r="65" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B65" s="29" t="s">
@@ -1753,13 +1757,13 @@
       </c>
       <c r="C65" s="30"/>
       <c r="D65" s="10" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -1854,12 +1858,14 @@
       </c>
       <c r="C76" s="28"/>
       <c r="D76" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F76" s="14"/>
+      <c r="F76" s="14">
+        <v>44275</v>
+      </c>
     </row>
     <row r="77" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="29" t="s">
@@ -1867,13 +1873,13 @@
       </c>
       <c r="C77" s="30"/>
       <c r="D77" s="10" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -1885,7 +1891,7 @@
       <c r="E78" s="32"/>
       <c r="F78" s="33"/>
     </row>
-    <row r="79" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B79" s="34" t="s">
         <v>17</v>
       </c>
@@ -1968,12 +1974,14 @@
       </c>
       <c r="C88" s="28"/>
       <c r="D88" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F88" s="14"/>
+      <c r="F88" s="14">
+        <v>44275</v>
+      </c>
     </row>
     <row r="89" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B89" s="29" t="s">
@@ -1981,7 +1989,7 @@
       </c>
       <c r="C89" s="30"/>
       <c r="D89" s="10" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>4</v>
@@ -1999,7 +2007,7 @@
       <c r="E90" s="32"/>
       <c r="F90" s="33"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="34" t="s">
         <v>17</v>
       </c>
@@ -2082,12 +2090,14 @@
       </c>
       <c r="C100" s="28"/>
       <c r="D100" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F100" s="14"/>
+      <c r="F100" s="14">
+        <v>44275</v>
+      </c>
     </row>
     <row r="101" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B101" s="29" t="s">
@@ -2095,7 +2105,7 @@
       </c>
       <c r="C101" s="30"/>
       <c r="D101" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>4</v>
@@ -2125,7 +2135,7 @@
       <c r="F103" s="20"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B104" s="16"/>
+      <c r="B104" s="35"/>
       <c r="C104" s="4"/>
       <c r="D104" s="21" t="s">
         <v>10</v>
@@ -2134,7 +2144,7 @@
       <c r="F104" s="23"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B105" s="16"/>
+      <c r="B105" s="35"/>
       <c r="C105" s="4"/>
       <c r="D105" s="21" t="s">
         <v>11</v>
@@ -2143,7 +2153,7 @@
       <c r="F105" s="23"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B106" s="16"/>
+      <c r="B106" s="35"/>
       <c r="C106" s="4"/>
       <c r="D106" s="21" t="s">
         <v>12</v>
@@ -2152,7 +2162,7 @@
       <c r="F106" s="23"/>
     </row>
     <row r="107" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B107" s="17"/>
+      <c r="B107" s="36"/>
       <c r="C107" s="13"/>
       <c r="D107" s="24" t="s">
         <v>13</v>
@@ -2196,12 +2206,14 @@
       </c>
       <c r="C112" s="28"/>
       <c r="D112" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F112" s="14"/>
+      <c r="F112" s="14">
+        <v>44275</v>
+      </c>
     </row>
     <row r="113" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B113" s="29" t="s">
@@ -2209,7 +2221,7 @@
       </c>
       <c r="C113" s="30"/>
       <c r="D113" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>4</v>
@@ -2239,7 +2251,7 @@
       <c r="F115" s="20"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B116" s="36"/>
+      <c r="B116" s="16"/>
       <c r="C116" s="4"/>
       <c r="D116" s="21" t="s">
         <v>10</v>
@@ -2248,7 +2260,7 @@
       <c r="F116" s="23"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B117" s="36"/>
+      <c r="B117" s="16"/>
       <c r="C117" s="4"/>
       <c r="D117" s="21" t="s">
         <v>11</v>
@@ -2257,7 +2269,7 @@
       <c r="F117" s="23"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B118" s="36"/>
+      <c r="B118" s="16"/>
       <c r="C118" s="4"/>
       <c r="D118" s="21" t="s">
         <v>12</v>
@@ -2266,7 +2278,7 @@
       <c r="F118" s="23"/>
     </row>
     <row r="119" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B119" s="37"/>
+      <c r="B119" s="17"/>
       <c r="C119" s="13"/>
       <c r="D119" s="24" t="s">
         <v>13</v>
@@ -2310,12 +2322,14 @@
       </c>
       <c r="C124" s="28"/>
       <c r="D124" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F124" s="14"/>
+      <c r="F124" s="14">
+        <v>44275</v>
+      </c>
     </row>
     <row r="125" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B125" s="29" t="s">
@@ -2323,7 +2337,7 @@
       </c>
       <c r="C125" s="30"/>
       <c r="D125" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>4</v>
@@ -2424,12 +2438,14 @@
       </c>
       <c r="C136" s="28"/>
       <c r="D136" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F136" s="14"/>
+      <c r="F136" s="14">
+        <v>44275</v>
+      </c>
     </row>
     <row r="137" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B137" s="29" t="s">
@@ -2437,7 +2453,7 @@
       </c>
       <c r="C137" s="30"/>
       <c r="D137" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>4</v>
@@ -2455,7 +2471,7 @@
       <c r="E138" s="32"/>
       <c r="F138" s="33"/>
     </row>
-    <row r="139" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B139" s="34" t="s">
         <v>17</v>
       </c>
@@ -2538,12 +2554,14 @@
       </c>
       <c r="C148" s="28"/>
       <c r="D148" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F148" s="14"/>
+      <c r="F148" s="14">
+        <v>44275</v>
+      </c>
     </row>
     <row r="149" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B149" s="29" t="s">
@@ -2551,7 +2569,7 @@
       </c>
       <c r="C149" s="30"/>
       <c r="D149" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>4</v>
@@ -2652,12 +2670,14 @@
       </c>
       <c r="C160" s="28"/>
       <c r="D160" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F160" s="14"/>
+      <c r="F160" s="14">
+        <v>44281</v>
+      </c>
     </row>
     <row r="161" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B161" s="29" t="s">
@@ -2665,7 +2685,7 @@
       </c>
       <c r="C161" s="30"/>
       <c r="D161" s="10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>4</v>
@@ -2766,12 +2786,14 @@
       </c>
       <c r="C172" s="28"/>
       <c r="D172" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F172" s="14"/>
+      <c r="F172" s="14">
+        <v>44281</v>
+      </c>
     </row>
     <row r="173" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B173" s="29" t="s">
@@ -2779,7 +2801,7 @@
       </c>
       <c r="C173" s="30"/>
       <c r="D173" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>4</v>
@@ -2873,294 +2895,8 @@
       <c r="E182" s="25"/>
       <c r="F182" s="26"/>
     </row>
-    <row r="183" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B184" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C184" s="28"/>
-      <c r="D184" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F184" s="14"/>
-    </row>
-    <row r="185" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B185" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C185" s="30"/>
-      <c r="D185" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="186" spans="2:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B186" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C186" s="32"/>
-      <c r="D186" s="32"/>
-      <c r="E186" s="32"/>
-      <c r="F186" s="33"/>
-    </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B187" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C187" s="11"/>
-      <c r="D187" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E187" s="19"/>
-      <c r="F187" s="20"/>
-    </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B188" s="16"/>
-      <c r="C188" s="4"/>
-      <c r="D188" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E188" s="22"/>
-      <c r="F188" s="23"/>
-    </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B189" s="16"/>
-      <c r="C189" s="4"/>
-      <c r="D189" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E189" s="22"/>
-      <c r="F189" s="23"/>
-    </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B190" s="16"/>
-      <c r="C190" s="4"/>
-      <c r="D190" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E190" s="22"/>
-      <c r="F190" s="23"/>
-    </row>
-    <row r="191" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B191" s="17"/>
-      <c r="C191" s="13"/>
-      <c r="D191" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E191" s="25"/>
-      <c r="F191" s="26"/>
-    </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B192" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C192" s="1"/>
-      <c r="D192" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E192" s="19"/>
-      <c r="F192" s="20"/>
-    </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B193" s="16"/>
-      <c r="C193" s="12"/>
-      <c r="D193" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E193" s="22"/>
-      <c r="F193" s="23"/>
-    </row>
-    <row r="194" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B194" s="17"/>
-      <c r="C194" s="13"/>
-      <c r="D194" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E194" s="25"/>
-      <c r="F194" s="26"/>
-    </row>
   </sheetData>
-  <mergeCells count="209">
-    <mergeCell ref="B192:B194"/>
-    <mergeCell ref="D192:F192"/>
-    <mergeCell ref="D193:F193"/>
-    <mergeCell ref="D194:F194"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="D180:F180"/>
-    <mergeCell ref="D181:F181"/>
-    <mergeCell ref="D182:F182"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B186:F186"/>
-    <mergeCell ref="B187:B191"/>
-    <mergeCell ref="D187:F187"/>
-    <mergeCell ref="D188:F188"/>
-    <mergeCell ref="D189:F189"/>
-    <mergeCell ref="D190:F190"/>
-    <mergeCell ref="D191:F191"/>
-    <mergeCell ref="B168:B170"/>
-    <mergeCell ref="D168:F168"/>
-    <mergeCell ref="D169:F169"/>
-    <mergeCell ref="D170:F170"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="D156:F156"/>
-    <mergeCell ref="D157:F157"/>
-    <mergeCell ref="D158:F158"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B174:F174"/>
-    <mergeCell ref="B175:B179"/>
-    <mergeCell ref="D175:F175"/>
-    <mergeCell ref="D176:F176"/>
-    <mergeCell ref="D177:F177"/>
-    <mergeCell ref="D178:F178"/>
-    <mergeCell ref="D179:F179"/>
-    <mergeCell ref="B163:B167"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="D164:F164"/>
-    <mergeCell ref="D165:F165"/>
-    <mergeCell ref="D166:F166"/>
-    <mergeCell ref="D167:F167"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="B151:B155"/>
-    <mergeCell ref="D151:F151"/>
-    <mergeCell ref="D152:F152"/>
-    <mergeCell ref="D153:F153"/>
-    <mergeCell ref="D154:F154"/>
-    <mergeCell ref="D155:F155"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="D146:F146"/>
-    <mergeCell ref="D145:F145"/>
-    <mergeCell ref="D144:F144"/>
-    <mergeCell ref="D143:F143"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:B143"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="D140:F140"/>
-    <mergeCell ref="D139:F139"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B115:B119"/>
-    <mergeCell ref="D132:F132"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="D134:F134"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D55:F55"/>
+  <mergeCells count="196">
     <mergeCell ref="D48:F48"/>
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="D43:F43"/>
@@ -3185,19 +2921,178 @@
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B91:B95"/>
     <mergeCell ref="B72:B74"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B88:C88"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B66:F66"/>
     <mergeCell ref="B67:B71"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B115:B119"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D68:F68"/>
     <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="B163:B167"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="D164:F164"/>
+    <mergeCell ref="D165:F165"/>
+    <mergeCell ref="D166:F166"/>
+    <mergeCell ref="D167:F167"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="D156:F156"/>
+    <mergeCell ref="D157:F157"/>
+    <mergeCell ref="D158:F158"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="D144:F144"/>
+    <mergeCell ref="D145:F145"/>
+    <mergeCell ref="D146:F146"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="B151:B155"/>
+    <mergeCell ref="D151:F151"/>
+    <mergeCell ref="D152:F152"/>
+    <mergeCell ref="D153:F153"/>
+    <mergeCell ref="D154:F154"/>
+    <mergeCell ref="D155:F155"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="D180:F180"/>
+    <mergeCell ref="D181:F181"/>
+    <mergeCell ref="D182:F182"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="D169:F169"/>
+    <mergeCell ref="D170:F170"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="B175:B179"/>
+    <mergeCell ref="D175:F175"/>
+    <mergeCell ref="D176:F176"/>
+    <mergeCell ref="D177:F177"/>
+    <mergeCell ref="D178:F178"/>
+    <mergeCell ref="D179:F179"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3206,19 +3101,18 @@
     <hyperlink ref="D29" r:id="rId3" xr:uid="{1C87A4CE-3703-448C-A373-BCEB0D2F0BFD}"/>
     <hyperlink ref="D41" r:id="rId4" xr:uid="{06864EE7-407E-4758-9D72-A8A3C83966B9}"/>
     <hyperlink ref="D53" r:id="rId5" xr:uid="{EF52BCC8-3789-4B3F-BA9A-71112BA87054}"/>
-    <hyperlink ref="D77" r:id="rId6" xr:uid="{15C122BD-1B12-4089-A31E-8363C895C9AD}"/>
-    <hyperlink ref="D101" r:id="rId7" xr:uid="{61C75032-623A-4E91-85CE-32FEBA06B7E3}"/>
-    <hyperlink ref="D113" r:id="rId8" xr:uid="{A38AB38A-B392-46FB-B787-340AAC82704D}"/>
-    <hyperlink ref="D125" r:id="rId9" xr:uid="{3B329BBD-6C6A-4708-A1AD-D48DA0ADB4D3}"/>
-    <hyperlink ref="D137" r:id="rId10" xr:uid="{5B60D571-F54E-436F-B754-D15AAF9257F9}"/>
-    <hyperlink ref="D149" r:id="rId11" xr:uid="{9FE2663A-CE97-46C4-B0FA-30B19B10EEAE}"/>
-    <hyperlink ref="D161" r:id="rId12" xr:uid="{937E1C92-08C0-4E82-A84B-275C478E51B3}"/>
-    <hyperlink ref="D89" r:id="rId13" xr:uid="{7C40CEFE-159E-4FC6-924D-B37EC16356EA}"/>
-    <hyperlink ref="D173" r:id="rId14" xr:uid="{3C4884CC-3DD6-489C-A10B-4979429BFB14}"/>
-    <hyperlink ref="D185" r:id="rId15" xr:uid="{0E3E8996-96B6-4733-8C92-A66BBD25E5A2}"/>
-    <hyperlink ref="D65" r:id="rId16" xr:uid="{BEC34909-D6A2-4408-B067-74B36A5BF584}"/>
+    <hyperlink ref="D65" r:id="rId6" xr:uid="{15C122BD-1B12-4089-A31E-8363C895C9AD}"/>
+    <hyperlink ref="D89" r:id="rId7" xr:uid="{61C75032-623A-4E91-85CE-32FEBA06B7E3}"/>
+    <hyperlink ref="D101" r:id="rId8" xr:uid="{A38AB38A-B392-46FB-B787-340AAC82704D}"/>
+    <hyperlink ref="D113" r:id="rId9" xr:uid="{3B329BBD-6C6A-4708-A1AD-D48DA0ADB4D3}"/>
+    <hyperlink ref="D125" r:id="rId10" xr:uid="{5B60D571-F54E-436F-B754-D15AAF9257F9}"/>
+    <hyperlink ref="D137" r:id="rId11" xr:uid="{9FE2663A-CE97-46C4-B0FA-30B19B10EEAE}"/>
+    <hyperlink ref="D149" r:id="rId12" xr:uid="{937E1C92-08C0-4E82-A84B-275C478E51B3}"/>
+    <hyperlink ref="D77" r:id="rId13" xr:uid="{7C40CEFE-159E-4FC6-924D-B37EC16356EA}"/>
+    <hyperlink ref="D161" r:id="rId14" xr:uid="{3C4884CC-3DD6-489C-A10B-4979429BFB14}"/>
+    <hyperlink ref="D173" r:id="rId15" xr:uid="{0E3E8996-96B6-4733-8C92-A66BBD25E5A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>